--- a/biology/Médecine/Hiatus_maxillaire/Hiatus_maxillaire.xlsx
+++ b/biology/Médecine/Hiatus_maxillaire/Hiatus_maxillaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le hiatus maxillaire (ou orifice du sinus maxillaire) est une large ouverture de la face nasale du corps du maxillaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le hiatus maxillaire est situé au-dessous de la bulle ethmoïdale près du toit du sinus maxillaire. Il est partiellement caché par l'extrémité inférieure du processus unciforme de l'os ethmoïde.
 Cette ouverture est délimité par le processus unciforme de l'ethmoïde en haut, le processus ethmoïdal du cornet nasal inférieur en bas, la partie verticale de l'os palatin en arrière et une petite partie de l'os lacrymal en haut.
